--- a/assets/uploads/cotizaciones/plantilla.xlsx
+++ b/assets/uploads/cotizaciones/plantilla.xlsx
@@ -78,7 +78,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +97,13 @@
       <color rgb="FFFFFFFF"/>
       <name val="Franklin Gothic Book"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFBDE2D"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +113,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -125,18 +136,871 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="91">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE6F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFE6F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0066"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF99CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFE6F0"/>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFF99CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -411,13 +1275,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
     <col min="2" max="2" width="52" customWidth="1"/>
@@ -432,7 +1296,7 @@
     <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="16.5">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -447,7 +1311,7 @@
       <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -490,7 +1354,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="16.5">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -509,7 +1373,7 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="1"/>
@@ -548,7 +1412,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3" spans="1:20" ht="18.75">
+      <c r="E3" s="4">
+        <f>IF(ISBLANK(C3),0,9)</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(C3 *(1- 30%))* -1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="0">C4-G4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="G3:G5832">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="greaterThan">
+      <formula>$C3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="9" operator="lessThan">
+      <formula>$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:N2948 R3:R2693">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="greaterThan">
+      <formula>$C3</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="lessThan">
+      <formula>$C3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4:E4101">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="greaterThanOrEqual">
+      <formula>C4 *(1- 30%)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="lessThanOrEqual">
+      <formula>(C4 *(1- 30%))* -1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>